--- a/mofsyncondition/db/csv/failed_html.xlsx
+++ b/mofsyncondition/db/csv/failed_html.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dinga_1/src/PythonProjects/mofsyncondition/mofsyncondition/db/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F41865-2F21-4F4D-BE4F-E5B8D91DA0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9570D3F1-B51A-D44F-9D24-6E05C77DA6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="700" windowWidth="26740" windowHeight="16020" xr2:uid="{64F29D1F-FDA4-F748-89F5-FEB84C0A643C}"/>
+    <workbookView xWindow="3740" yWindow="720" windowWidth="26740" windowHeight="16020" xr2:uid="{64F29D1F-FDA4-F748-89F5-FEB84C0A643C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ABUZOP</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>CEMTOE</t>
+  </si>
+  <si>
+    <t>CEPHAG</t>
+  </si>
+  <si>
+    <t>CIDNEK</t>
+  </si>
+  <si>
+    <t>DAZHIV</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794CC08B-A566-3443-A053-BB191F32ACEF}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,6 +515,21 @@
         <v>12</v>
       </c>
     </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mofsyncondition/db/csv/failed_html.xlsx
+++ b/mofsyncondition/db/csv/failed_html.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dinga_1/src/PythonProjects/mofsyncondition/mofsyncondition/db/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9570D3F1-B51A-D44F-9D24-6E05C77DA6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E6F95-3530-264C-AC39-3913A5F58720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="720" windowWidth="26740" windowHeight="16020" xr2:uid="{64F29D1F-FDA4-F748-89F5-FEB84C0A643C}"/>
+    <workbookView xWindow="3500" yWindow="760" windowWidth="26740" windowHeight="16020" xr2:uid="{64F29D1F-FDA4-F748-89F5-FEB84C0A643C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ABUZOP</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>DAZHIV</t>
+  </si>
+  <si>
+    <t>GEBHOK</t>
+  </si>
+  <si>
+    <t>GOYSAO</t>
+  </si>
+  <si>
+    <t>LESBIU</t>
   </si>
 </sst>
 </file>
@@ -442,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794CC08B-A566-3443-A053-BB191F32ACEF}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,6 +539,21 @@
         <v>15</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mofsyncondition/db/csv/failed_html.xlsx
+++ b/mofsyncondition/db/csv/failed_html.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dinga_1/src/PythonProjects/mofsyncondition/mofsyncondition/db/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2E6F95-3530-264C-AC39-3913A5F58720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE337BA0-AECC-7A49-830E-A26DF6450510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="760" windowWidth="26740" windowHeight="16020" xr2:uid="{64F29D1F-FDA4-F748-89F5-FEB84C0A643C}"/>
+    <workbookView xWindow="300" yWindow="700" windowWidth="26740" windowHeight="16020" xr2:uid="{64F29D1F-FDA4-F748-89F5-FEB84C0A643C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ABUZOP</t>
   </si>
@@ -93,6 +93,21 @@
   </si>
   <si>
     <t>LESBIU</t>
+  </si>
+  <si>
+    <t>NAYJUS</t>
+  </si>
+  <si>
+    <t>NUDZIV</t>
+  </si>
+  <si>
+    <t>PITXIZ</t>
+  </si>
+  <si>
+    <t>SOBZO</t>
+  </si>
+  <si>
+    <t>TOCVIQ</t>
   </si>
 </sst>
 </file>
@@ -451,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794CC08B-A566-3443-A053-BB191F32ACEF}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -554,6 +569,40 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
